--- a/各地组播源汇总/河北.xlsx
+++ b/各地组播源汇总/河北.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="抓取的源" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="501">
   <si>
     <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1087,9 +1087,6 @@
     <t>123.181.150.17:7000</t>
   </si>
   <si>
-    <t>河北杂技频道</t>
-  </si>
-  <si>
     <t>鹿泉电视</t>
   </si>
   <si>
@@ -1112,9 +1109,6 @@
   </si>
   <si>
     <t>肥乡电视</t>
-  </si>
-  <si>
-    <t>/rtp/239.254.200.18:6000</t>
   </si>
   <si>
     <t>/rtp/239.254.200.19:6000</t>
@@ -1545,6 +1539,22 @@
   </si>
   <si>
     <t>IPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rtp/239.254.200.18:6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北杂技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$河北电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北文旅公共</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2962,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3001,7 +3011,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
         <v>200</v>
@@ -3018,7 +3028,7 @@
         <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
         <v>200</v>
@@ -3035,7 +3045,7 @@
         <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
         <v>200</v>
@@ -3052,7 +3062,7 @@
         <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E5" t="s">
         <v>201</v>
@@ -3069,7 +3079,7 @@
         <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E6" t="s">
         <v>201</v>
@@ -3086,7 +3096,7 @@
         <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E7" t="s">
         <v>201</v>
@@ -3103,7 +3113,7 @@
         <v>340</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
         <v>202</v>
@@ -3120,7 +3130,7 @@
         <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
         <v>202</v>
@@ -3137,7 +3147,7 @@
         <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E10" t="s">
         <v>202</v>
@@ -3154,7 +3164,7 @@
         <v>340</v>
       </c>
       <c r="D11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>203</v>
@@ -3171,7 +3181,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E12" t="s">
         <v>203</v>
@@ -3188,7 +3198,7 @@
         <v>340</v>
       </c>
       <c r="D13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E13" t="s">
         <v>203</v>
@@ -3205,7 +3215,7 @@
         <v>340</v>
       </c>
       <c r="D14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E14" t="s">
         <v>204</v>
@@ -3222,7 +3232,7 @@
         <v>340</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
         <v>204</v>
@@ -3239,7 +3249,7 @@
         <v>340</v>
       </c>
       <c r="D16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E16" t="s">
         <v>204</v>
@@ -3256,7 +3266,7 @@
         <v>340</v>
       </c>
       <c r="D17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
         <v>205</v>
@@ -3273,7 +3283,7 @@
         <v>340</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E18" t="s">
         <v>205</v>
@@ -3290,7 +3300,7 @@
         <v>340</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E19" t="s">
         <v>205</v>
@@ -3307,7 +3317,7 @@
         <v>340</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E20" t="s">
         <v>206</v>
@@ -3324,7 +3334,7 @@
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E21" t="s">
         <v>206</v>
@@ -3341,7 +3351,7 @@
         <v>340</v>
       </c>
       <c r="D22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E22" t="s">
         <v>206</v>
@@ -3358,7 +3368,7 @@
         <v>340</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
         <v>207</v>
@@ -3375,7 +3385,7 @@
         <v>340</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E24" t="s">
         <v>207</v>
@@ -3392,7 +3402,7 @@
         <v>340</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E25" t="s">
         <v>207</v>
@@ -3409,7 +3419,7 @@
         <v>340</v>
       </c>
       <c r="D26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E26" t="s">
         <v>208</v>
@@ -3426,7 +3436,7 @@
         <v>340</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E27" t="s">
         <v>208</v>
@@ -3443,7 +3453,7 @@
         <v>340</v>
       </c>
       <c r="D28" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E28" t="s">
         <v>208</v>
@@ -3460,7 +3470,7 @@
         <v>340</v>
       </c>
       <c r="D29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
         <v>209</v>
@@ -3477,7 +3487,7 @@
         <v>340</v>
       </c>
       <c r="D30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E30" t="s">
         <v>209</v>
@@ -3494,7 +3504,7 @@
         <v>340</v>
       </c>
       <c r="D31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E31" t="s">
         <v>209</v>
@@ -3511,7 +3521,7 @@
         <v>340</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
         <v>210</v>
@@ -3528,7 +3538,7 @@
         <v>340</v>
       </c>
       <c r="D33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E33" t="s">
         <v>210</v>
@@ -3545,7 +3555,7 @@
         <v>340</v>
       </c>
       <c r="D34" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E34" t="s">
         <v>210</v>
@@ -3562,7 +3572,7 @@
         <v>340</v>
       </c>
       <c r="D35" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E35" t="s">
         <v>211</v>
@@ -3579,7 +3589,7 @@
         <v>340</v>
       </c>
       <c r="D36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E36" t="s">
         <v>211</v>
@@ -3596,7 +3606,7 @@
         <v>340</v>
       </c>
       <c r="D37" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E37" t="s">
         <v>211</v>
@@ -3613,7 +3623,7 @@
         <v>340</v>
       </c>
       <c r="D38" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E38" t="s">
         <v>212</v>
@@ -3630,7 +3640,7 @@
         <v>340</v>
       </c>
       <c r="D39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E39" t="s">
         <v>212</v>
@@ -3647,7 +3657,7 @@
         <v>340</v>
       </c>
       <c r="D40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E40" t="s">
         <v>212</v>
@@ -3664,7 +3674,7 @@
         <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E41" t="s">
         <v>213</v>
@@ -3681,7 +3691,7 @@
         <v>340</v>
       </c>
       <c r="D42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E42" t="s">
         <v>213</v>
@@ -3698,7 +3708,7 @@
         <v>340</v>
       </c>
       <c r="D43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E43" t="s">
         <v>213</v>
@@ -3715,7 +3725,7 @@
         <v>340</v>
       </c>
       <c r="D44" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E44" t="s">
         <v>214</v>
@@ -3732,7 +3742,7 @@
         <v>340</v>
       </c>
       <c r="D45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E45" t="s">
         <v>214</v>
@@ -3749,7 +3759,7 @@
         <v>340</v>
       </c>
       <c r="D46" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E46" t="s">
         <v>214</v>
@@ -3766,7 +3776,7 @@
         <v>340</v>
       </c>
       <c r="D47" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E47" t="s">
         <v>215</v>
@@ -3783,7 +3793,7 @@
         <v>340</v>
       </c>
       <c r="D48" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E48" t="s">
         <v>215</v>
@@ -3800,7 +3810,7 @@
         <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E49" t="s">
         <v>215</v>
@@ -3817,7 +3827,7 @@
         <v>340</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E50" t="s">
         <v>216</v>
@@ -3834,7 +3844,7 @@
         <v>340</v>
       </c>
       <c r="D51" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E51" t="s">
         <v>216</v>
@@ -3851,7 +3861,7 @@
         <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E52" t="s">
         <v>216</v>
@@ -3868,7 +3878,7 @@
         <v>340</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E53" t="s">
         <v>217</v>
@@ -3885,7 +3895,7 @@
         <v>340</v>
       </c>
       <c r="D54" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E54" t="s">
         <v>217</v>
@@ -3902,7 +3912,7 @@
         <v>340</v>
       </c>
       <c r="D55" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E55" t="s">
         <v>217</v>
@@ -3919,7 +3929,7 @@
         <v>340</v>
       </c>
       <c r="D56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E56" t="s">
         <v>218</v>
@@ -3936,7 +3946,7 @@
         <v>340</v>
       </c>
       <c r="D57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E57" t="s">
         <v>218</v>
@@ -3953,7 +3963,7 @@
         <v>340</v>
       </c>
       <c r="D58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E58" t="s">
         <v>218</v>
@@ -3970,7 +3980,7 @@
         <v>340</v>
       </c>
       <c r="D59" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E59" t="s">
         <v>219</v>
@@ -3987,7 +3997,7 @@
         <v>340</v>
       </c>
       <c r="D60" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E60" t="s">
         <v>219</v>
@@ -4004,7 +4014,7 @@
         <v>340</v>
       </c>
       <c r="D61" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E61" t="s">
         <v>219</v>
@@ -4021,7 +4031,7 @@
         <v>340</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E62" t="s">
         <v>220</v>
@@ -4038,7 +4048,7 @@
         <v>340</v>
       </c>
       <c r="D63" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E63" t="s">
         <v>220</v>
@@ -4055,7 +4065,7 @@
         <v>340</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E64" t="s">
         <v>220</v>
@@ -4072,7 +4082,7 @@
         <v>340</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E65" t="s">
         <v>221</v>
@@ -4089,7 +4099,7 @@
         <v>340</v>
       </c>
       <c r="D66" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E66" t="s">
         <v>221</v>
@@ -4106,7 +4116,7 @@
         <v>340</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E67" t="s">
         <v>221</v>
@@ -4123,7 +4133,7 @@
         <v>340</v>
       </c>
       <c r="D68" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E68" t="s">
         <v>222</v>
@@ -4140,7 +4150,7 @@
         <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E69" t="s">
         <v>222</v>
@@ -4157,7 +4167,7 @@
         <v>340</v>
       </c>
       <c r="D70" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E70" t="s">
         <v>222</v>
@@ -4174,7 +4184,7 @@
         <v>340</v>
       </c>
       <c r="D71" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E71" t="s">
         <v>223</v>
@@ -4191,7 +4201,7 @@
         <v>340</v>
       </c>
       <c r="D72" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E72" t="s">
         <v>223</v>
@@ -4208,7 +4218,7 @@
         <v>340</v>
       </c>
       <c r="D73" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E73" t="s">
         <v>223</v>
@@ -4225,7 +4235,7 @@
         <v>340</v>
       </c>
       <c r="D74" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E74" t="s">
         <v>224</v>
@@ -4242,7 +4252,7 @@
         <v>340</v>
       </c>
       <c r="D75" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E75" t="s">
         <v>224</v>
@@ -4259,7 +4269,7 @@
         <v>340</v>
       </c>
       <c r="D76" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E76" t="s">
         <v>224</v>
@@ -4276,7 +4286,7 @@
         <v>340</v>
       </c>
       <c r="D77" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E77" t="s">
         <v>225</v>
@@ -4293,7 +4303,7 @@
         <v>340</v>
       </c>
       <c r="D78" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E78" t="s">
         <v>225</v>
@@ -4310,7 +4320,7 @@
         <v>340</v>
       </c>
       <c r="D79" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E79" t="s">
         <v>225</v>
@@ -4327,7 +4337,7 @@
         <v>340</v>
       </c>
       <c r="D80" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E80" t="s">
         <v>226</v>
@@ -4344,7 +4354,7 @@
         <v>340</v>
       </c>
       <c r="D81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E81" t="s">
         <v>226</v>
@@ -4361,7 +4371,7 @@
         <v>340</v>
       </c>
       <c r="D82" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E82" t="s">
         <v>226</v>
@@ -4378,7 +4388,7 @@
         <v>340</v>
       </c>
       <c r="D83" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E83" t="s">
         <v>227</v>
@@ -4395,7 +4405,7 @@
         <v>340</v>
       </c>
       <c r="D84" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E84" t="s">
         <v>227</v>
@@ -4412,7 +4422,7 @@
         <v>340</v>
       </c>
       <c r="D85" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E85" t="s">
         <v>227</v>
@@ -4429,7 +4439,7 @@
         <v>340</v>
       </c>
       <c r="D86" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E86" t="s">
         <v>228</v>
@@ -4446,7 +4456,7 @@
         <v>340</v>
       </c>
       <c r="D87" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E87" t="s">
         <v>228</v>
@@ -4463,7 +4473,7 @@
         <v>340</v>
       </c>
       <c r="D88" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E88" t="s">
         <v>228</v>
@@ -4480,7 +4490,7 @@
         <v>340</v>
       </c>
       <c r="D89" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E89" t="s">
         <v>229</v>
@@ -4497,7 +4507,7 @@
         <v>340</v>
       </c>
       <c r="D90" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E90" t="s">
         <v>229</v>
@@ -4514,7 +4524,7 @@
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E91" t="s">
         <v>229</v>
@@ -4531,7 +4541,7 @@
         <v>340</v>
       </c>
       <c r="D92" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E92" t="s">
         <v>230</v>
@@ -4548,7 +4558,7 @@
         <v>340</v>
       </c>
       <c r="D93" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E93" t="s">
         <v>230</v>
@@ -4565,7 +4575,7 @@
         <v>340</v>
       </c>
       <c r="D94" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E94" t="s">
         <v>230</v>
@@ -4582,7 +4592,7 @@
         <v>340</v>
       </c>
       <c r="D95" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E95" t="s">
         <v>231</v>
@@ -4599,7 +4609,7 @@
         <v>340</v>
       </c>
       <c r="D96" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E96" t="s">
         <v>231</v>
@@ -4616,7 +4626,7 @@
         <v>340</v>
       </c>
       <c r="D97" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E97" t="s">
         <v>231</v>
@@ -4633,7 +4643,7 @@
         <v>340</v>
       </c>
       <c r="D98" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E98" t="s">
         <v>232</v>
@@ -4650,7 +4660,7 @@
         <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E99" t="s">
         <v>232</v>
@@ -4667,7 +4677,7 @@
         <v>340</v>
       </c>
       <c r="D100" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E100" t="s">
         <v>232</v>
@@ -4684,7 +4694,7 @@
         <v>340</v>
       </c>
       <c r="D101" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E101" t="s">
         <v>233</v>
@@ -4701,7 +4711,7 @@
         <v>340</v>
       </c>
       <c r="D102" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E102" t="s">
         <v>233</v>
@@ -4718,7 +4728,7 @@
         <v>340</v>
       </c>
       <c r="D103" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E103" t="s">
         <v>233</v>
@@ -4735,7 +4745,7 @@
         <v>340</v>
       </c>
       <c r="D104" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E104" t="s">
         <v>234</v>
@@ -4752,7 +4762,7 @@
         <v>340</v>
       </c>
       <c r="D105" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E105" t="s">
         <v>234</v>
@@ -4769,7 +4779,7 @@
         <v>340</v>
       </c>
       <c r="D106" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E106" t="s">
         <v>234</v>
@@ -4786,7 +4796,7 @@
         <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E107" t="s">
         <v>235</v>
@@ -4803,7 +4813,7 @@
         <v>340</v>
       </c>
       <c r="D108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E108" t="s">
         <v>235</v>
@@ -4820,7 +4830,7 @@
         <v>340</v>
       </c>
       <c r="D109" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E109" t="s">
         <v>235</v>
@@ -4837,7 +4847,7 @@
         <v>340</v>
       </c>
       <c r="D110" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E110" t="s">
         <v>236</v>
@@ -4854,7 +4864,7 @@
         <v>340</v>
       </c>
       <c r="D111" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E111" t="s">
         <v>236</v>
@@ -4871,7 +4881,7 @@
         <v>340</v>
       </c>
       <c r="D112" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E112" t="s">
         <v>236</v>
@@ -4888,7 +4898,7 @@
         <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E113" t="s">
         <v>237</v>
@@ -4905,7 +4915,7 @@
         <v>340</v>
       </c>
       <c r="D114" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E114" t="s">
         <v>237</v>
@@ -4922,7 +4932,7 @@
         <v>340</v>
       </c>
       <c r="D115" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E115" t="s">
         <v>237</v>
@@ -4939,7 +4949,7 @@
         <v>340</v>
       </c>
       <c r="D116" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E116" t="s">
         <v>238</v>
@@ -4956,7 +4966,7 @@
         <v>340</v>
       </c>
       <c r="D117" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E117" t="s">
         <v>238</v>
@@ -4973,7 +4983,7 @@
         <v>340</v>
       </c>
       <c r="D118" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E118" t="s">
         <v>238</v>
@@ -4990,7 +5000,7 @@
         <v>340</v>
       </c>
       <c r="D119" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E119" t="s">
         <v>239</v>
@@ -5007,7 +5017,7 @@
         <v>340</v>
       </c>
       <c r="D120" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E120" t="s">
         <v>239</v>
@@ -5024,7 +5034,7 @@
         <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E121" t="s">
         <v>239</v>
@@ -5041,7 +5051,7 @@
         <v>340</v>
       </c>
       <c r="D122" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E122" t="s">
         <v>240</v>
@@ -5058,7 +5068,7 @@
         <v>340</v>
       </c>
       <c r="D123" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E123" t="s">
         <v>240</v>
@@ -5075,7 +5085,7 @@
         <v>340</v>
       </c>
       <c r="D124" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E124" t="s">
         <v>240</v>
@@ -5092,7 +5102,7 @@
         <v>340</v>
       </c>
       <c r="D125" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E125" t="s">
         <v>241</v>
@@ -5109,7 +5119,7 @@
         <v>340</v>
       </c>
       <c r="D126" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E126" t="s">
         <v>241</v>
@@ -5126,7 +5136,7 @@
         <v>340</v>
       </c>
       <c r="D127" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E127" t="s">
         <v>241</v>
@@ -5143,7 +5153,7 @@
         <v>340</v>
       </c>
       <c r="D128" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E128" t="s">
         <v>242</v>
@@ -5160,7 +5170,7 @@
         <v>340</v>
       </c>
       <c r="D129" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E129" t="s">
         <v>242</v>
@@ -5177,7 +5187,7 @@
         <v>340</v>
       </c>
       <c r="D130" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E130" t="s">
         <v>242</v>
@@ -5194,7 +5204,7 @@
         <v>340</v>
       </c>
       <c r="D131" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E131" t="s">
         <v>243</v>
@@ -5211,7 +5221,7 @@
         <v>340</v>
       </c>
       <c r="D132" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E132" t="s">
         <v>243</v>
@@ -5228,7 +5238,7 @@
         <v>340</v>
       </c>
       <c r="D133" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E133" t="s">
         <v>243</v>
@@ -5245,7 +5255,7 @@
         <v>340</v>
       </c>
       <c r="D134" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E134" t="s">
         <v>244</v>
@@ -5262,7 +5272,7 @@
         <v>340</v>
       </c>
       <c r="D135" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E135" t="s">
         <v>244</v>
@@ -5279,7 +5289,7 @@
         <v>340</v>
       </c>
       <c r="D136" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E136" t="s">
         <v>244</v>
@@ -5296,7 +5306,7 @@
         <v>340</v>
       </c>
       <c r="D137" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E137" t="s">
         <v>245</v>
@@ -5313,7 +5323,7 @@
         <v>340</v>
       </c>
       <c r="D138" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E138" t="s">
         <v>245</v>
@@ -5330,7 +5340,7 @@
         <v>340</v>
       </c>
       <c r="D139" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E139" t="s">
         <v>245</v>
@@ -5347,7 +5357,7 @@
         <v>340</v>
       </c>
       <c r="D140" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E140" t="s">
         <v>246</v>
@@ -5364,7 +5374,7 @@
         <v>340</v>
       </c>
       <c r="D141" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E141" t="s">
         <v>246</v>
@@ -5381,7 +5391,7 @@
         <v>340</v>
       </c>
       <c r="D142" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E142" t="s">
         <v>246</v>
@@ -5398,7 +5408,7 @@
         <v>340</v>
       </c>
       <c r="D143" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E143" t="s">
         <v>247</v>
@@ -5415,7 +5425,7 @@
         <v>340</v>
       </c>
       <c r="D144" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E144" t="s">
         <v>247</v>
@@ -5432,7 +5442,7 @@
         <v>340</v>
       </c>
       <c r="D145" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E145" t="s">
         <v>247</v>
@@ -5449,7 +5459,7 @@
         <v>340</v>
       </c>
       <c r="D146" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E146" t="s">
         <v>248</v>
@@ -5466,7 +5476,7 @@
         <v>340</v>
       </c>
       <c r="D147" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E147" t="s">
         <v>248</v>
@@ -5483,7 +5493,7 @@
         <v>340</v>
       </c>
       <c r="D148" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E148" t="s">
         <v>248</v>
@@ -5500,7 +5510,7 @@
         <v>340</v>
       </c>
       <c r="D149" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E149" t="s">
         <v>249</v>
@@ -5517,7 +5527,7 @@
         <v>340</v>
       </c>
       <c r="D150" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E150" t="s">
         <v>249</v>
@@ -5534,7 +5544,7 @@
         <v>340</v>
       </c>
       <c r="D151" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E151" t="s">
         <v>249</v>
@@ -5551,7 +5561,7 @@
         <v>340</v>
       </c>
       <c r="D152" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E152" t="s">
         <v>250</v>
@@ -5568,7 +5578,7 @@
         <v>340</v>
       </c>
       <c r="D153" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E153" t="s">
         <v>250</v>
@@ -5585,7 +5595,7 @@
         <v>340</v>
       </c>
       <c r="D154" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E154" t="s">
         <v>250</v>
@@ -5602,7 +5612,7 @@
         <v>340</v>
       </c>
       <c r="D155" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E155" t="s">
         <v>251</v>
@@ -5619,7 +5629,7 @@
         <v>340</v>
       </c>
       <c r="D156" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E156" t="s">
         <v>251</v>
@@ -5636,7 +5646,7 @@
         <v>340</v>
       </c>
       <c r="D157" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E157" t="s">
         <v>251</v>
@@ -5653,7 +5663,7 @@
         <v>340</v>
       </c>
       <c r="D158" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E158" t="s">
         <v>252</v>
@@ -5670,7 +5680,7 @@
         <v>340</v>
       </c>
       <c r="D159" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E159" t="s">
         <v>252</v>
@@ -5687,7 +5697,7 @@
         <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E160" t="s">
         <v>252</v>
@@ -5704,7 +5714,7 @@
         <v>340</v>
       </c>
       <c r="D161" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E161" t="s">
         <v>253</v>
@@ -5721,7 +5731,7 @@
         <v>340</v>
       </c>
       <c r="D162" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E162" t="s">
         <v>253</v>
@@ -5738,7 +5748,7 @@
         <v>340</v>
       </c>
       <c r="D163" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E163" t="s">
         <v>253</v>
@@ -5755,7 +5765,7 @@
         <v>340</v>
       </c>
       <c r="D164" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E164" t="s">
         <v>254</v>
@@ -5772,7 +5782,7 @@
         <v>340</v>
       </c>
       <c r="D165" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E165" t="s">
         <v>254</v>
@@ -5789,7 +5799,7 @@
         <v>340</v>
       </c>
       <c r="D166" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E166" t="s">
         <v>254</v>
@@ -5806,7 +5816,7 @@
         <v>340</v>
       </c>
       <c r="D167" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E167" t="s">
         <v>255</v>
@@ -5823,7 +5833,7 @@
         <v>340</v>
       </c>
       <c r="D168" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E168" t="s">
         <v>255</v>
@@ -5840,7 +5850,7 @@
         <v>340</v>
       </c>
       <c r="D169" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E169" t="s">
         <v>255</v>
@@ -5857,7 +5867,7 @@
         <v>340</v>
       </c>
       <c r="D170" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E170" t="s">
         <v>256</v>
@@ -5874,7 +5884,7 @@
         <v>340</v>
       </c>
       <c r="D171" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E171" t="s">
         <v>256</v>
@@ -5891,7 +5901,7 @@
         <v>340</v>
       </c>
       <c r="D172" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E172" t="s">
         <v>256</v>
@@ -5908,7 +5918,7 @@
         <v>340</v>
       </c>
       <c r="D173" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E173" t="s">
         <v>257</v>
@@ -5925,7 +5935,7 @@
         <v>340</v>
       </c>
       <c r="D174" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E174" t="s">
         <v>257</v>
@@ -5942,7 +5952,7 @@
         <v>340</v>
       </c>
       <c r="D175" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E175" t="s">
         <v>257</v>
@@ -5959,7 +5969,7 @@
         <v>340</v>
       </c>
       <c r="D176" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E176" t="s">
         <v>258</v>
@@ -5976,7 +5986,7 @@
         <v>340</v>
       </c>
       <c r="D177" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E177" t="s">
         <v>258</v>
@@ -5993,7 +6003,7 @@
         <v>340</v>
       </c>
       <c r="D178" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E178" t="s">
         <v>258</v>
@@ -6010,7 +6020,7 @@
         <v>340</v>
       </c>
       <c r="D179" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E179" t="s">
         <v>259</v>
@@ -6027,7 +6037,7 @@
         <v>340</v>
       </c>
       <c r="D180" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E180" t="s">
         <v>259</v>
@@ -6044,7 +6054,7 @@
         <v>340</v>
       </c>
       <c r="D181" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E181" t="s">
         <v>259</v>
@@ -6061,7 +6071,7 @@
         <v>340</v>
       </c>
       <c r="D182" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E182" t="s">
         <v>260</v>
@@ -6078,7 +6088,7 @@
         <v>340</v>
       </c>
       <c r="D183" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E183" t="s">
         <v>260</v>
@@ -6095,7 +6105,7 @@
         <v>340</v>
       </c>
       <c r="D184" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E184" t="s">
         <v>260</v>
@@ -6112,7 +6122,7 @@
         <v>340</v>
       </c>
       <c r="D185" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E185" t="s">
         <v>261</v>
@@ -6129,7 +6139,7 @@
         <v>340</v>
       </c>
       <c r="D186" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E186" t="s">
         <v>261</v>
@@ -6146,7 +6156,7 @@
         <v>340</v>
       </c>
       <c r="D187" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E187" t="s">
         <v>261</v>
@@ -6163,7 +6173,7 @@
         <v>340</v>
       </c>
       <c r="D188" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E188" t="s">
         <v>262</v>
@@ -6180,7 +6190,7 @@
         <v>340</v>
       </c>
       <c r="D189" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E189" t="s">
         <v>262</v>
@@ -6197,7 +6207,7 @@
         <v>340</v>
       </c>
       <c r="D190" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E190" t="s">
         <v>262</v>
@@ -6214,7 +6224,7 @@
         <v>340</v>
       </c>
       <c r="D191" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E191" t="s">
         <v>263</v>
@@ -6231,7 +6241,7 @@
         <v>340</v>
       </c>
       <c r="D192" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E192" t="s">
         <v>263</v>
@@ -6248,7 +6258,7 @@
         <v>340</v>
       </c>
       <c r="D193" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E193" t="s">
         <v>263</v>
@@ -6265,7 +6275,7 @@
         <v>340</v>
       </c>
       <c r="D194" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E194" t="s">
         <v>264</v>
@@ -6282,7 +6292,7 @@
         <v>340</v>
       </c>
       <c r="D195" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E195" t="s">
         <v>264</v>
@@ -6299,7 +6309,7 @@
         <v>340</v>
       </c>
       <c r="D196" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E196" t="s">
         <v>264</v>
@@ -6316,7 +6326,7 @@
         <v>340</v>
       </c>
       <c r="D197" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E197" t="s">
         <v>265</v>
@@ -6333,7 +6343,7 @@
         <v>340</v>
       </c>
       <c r="D198" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E198" t="s">
         <v>265</v>
@@ -6350,7 +6360,7 @@
         <v>340</v>
       </c>
       <c r="D199" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E199" t="s">
         <v>265</v>
@@ -6367,7 +6377,7 @@
         <v>340</v>
       </c>
       <c r="D200" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E200" t="s">
         <v>266</v>
@@ -6384,7 +6394,7 @@
         <v>340</v>
       </c>
       <c r="D201" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E201" t="s">
         <v>266</v>
@@ -6401,7 +6411,7 @@
         <v>340</v>
       </c>
       <c r="D202" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E202" t="s">
         <v>266</v>
@@ -6418,7 +6428,7 @@
         <v>340</v>
       </c>
       <c r="D203" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E203" t="s">
         <v>267</v>
@@ -6435,7 +6445,7 @@
         <v>340</v>
       </c>
       <c r="D204" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E204" t="s">
         <v>267</v>
@@ -6452,7 +6462,7 @@
         <v>340</v>
       </c>
       <c r="D205" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E205" t="s">
         <v>267</v>
@@ -6469,7 +6479,7 @@
         <v>340</v>
       </c>
       <c r="D206" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E206" t="s">
         <v>268</v>
@@ -6486,7 +6496,7 @@
         <v>340</v>
       </c>
       <c r="D207" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E207" t="s">
         <v>268</v>
@@ -6503,7 +6513,7 @@
         <v>340</v>
       </c>
       <c r="D208" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E208" t="s">
         <v>268</v>
@@ -6520,7 +6530,7 @@
         <v>340</v>
       </c>
       <c r="D209" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E209" t="s">
         <v>269</v>
@@ -6537,7 +6547,7 @@
         <v>340</v>
       </c>
       <c r="D210" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E210" t="s">
         <v>269</v>
@@ -6554,7 +6564,7 @@
         <v>340</v>
       </c>
       <c r="D211" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E211" t="s">
         <v>269</v>
@@ -6571,7 +6581,7 @@
         <v>340</v>
       </c>
       <c r="D212" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E212" t="s">
         <v>270</v>
@@ -6588,7 +6598,7 @@
         <v>340</v>
       </c>
       <c r="D213" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E213" t="s">
         <v>270</v>
@@ -6605,7 +6615,7 @@
         <v>340</v>
       </c>
       <c r="D214" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E214" t="s">
         <v>270</v>
@@ -6622,7 +6632,7 @@
         <v>340</v>
       </c>
       <c r="D215" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E215" t="s">
         <v>271</v>
@@ -6639,7 +6649,7 @@
         <v>340</v>
       </c>
       <c r="D216" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E216" t="s">
         <v>271</v>
@@ -6656,7 +6666,7 @@
         <v>340</v>
       </c>
       <c r="D217" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E217" t="s">
         <v>271</v>
@@ -6673,7 +6683,7 @@
         <v>340</v>
       </c>
       <c r="D218" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E218" t="s">
         <v>272</v>
@@ -6690,7 +6700,7 @@
         <v>340</v>
       </c>
       <c r="D219" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E219" t="s">
         <v>272</v>
@@ -6707,7 +6717,7 @@
         <v>340</v>
       </c>
       <c r="D220" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E220" t="s">
         <v>272</v>
@@ -6724,7 +6734,7 @@
         <v>340</v>
       </c>
       <c r="D221" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E221" t="s">
         <v>273</v>
@@ -6741,7 +6751,7 @@
         <v>340</v>
       </c>
       <c r="D222" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E222" t="s">
         <v>273</v>
@@ -6758,7 +6768,7 @@
         <v>340</v>
       </c>
       <c r="D223" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E223" t="s">
         <v>273</v>
@@ -6775,7 +6785,7 @@
         <v>340</v>
       </c>
       <c r="D224" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E224" t="s">
         <v>274</v>
@@ -6792,7 +6802,7 @@
         <v>340</v>
       </c>
       <c r="D225" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E225" t="s">
         <v>274</v>
@@ -6809,7 +6819,7 @@
         <v>340</v>
       </c>
       <c r="D226" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E226" t="s">
         <v>274</v>
@@ -6826,7 +6836,7 @@
         <v>340</v>
       </c>
       <c r="D227" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E227" t="s">
         <v>275</v>
@@ -6843,7 +6853,7 @@
         <v>340</v>
       </c>
       <c r="D228" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E228" t="s">
         <v>275</v>
@@ -6860,7 +6870,7 @@
         <v>340</v>
       </c>
       <c r="D229" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E229" t="s">
         <v>275</v>
@@ -6877,7 +6887,7 @@
         <v>340</v>
       </c>
       <c r="D230" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E230" t="s">
         <v>276</v>
@@ -6894,7 +6904,7 @@
         <v>340</v>
       </c>
       <c r="D231" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E231" t="s">
         <v>276</v>
@@ -6911,7 +6921,7 @@
         <v>340</v>
       </c>
       <c r="D232" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E232" t="s">
         <v>276</v>
@@ -6928,7 +6938,7 @@
         <v>340</v>
       </c>
       <c r="D233" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E233" t="s">
         <v>277</v>
@@ -6945,7 +6955,7 @@
         <v>340</v>
       </c>
       <c r="D234" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E234" t="s">
         <v>277</v>
@@ -6962,7 +6972,7 @@
         <v>340</v>
       </c>
       <c r="D235" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E235" t="s">
         <v>277</v>
@@ -6979,7 +6989,7 @@
         <v>340</v>
       </c>
       <c r="D236" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E236" t="s">
         <v>278</v>
@@ -6996,7 +7006,7 @@
         <v>340</v>
       </c>
       <c r="D237" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E237" t="s">
         <v>278</v>
@@ -7013,7 +7023,7 @@
         <v>340</v>
       </c>
       <c r="D238" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E238" t="s">
         <v>278</v>
@@ -7030,7 +7040,7 @@
         <v>340</v>
       </c>
       <c r="D239" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E239" t="s">
         <v>279</v>
@@ -7047,7 +7057,7 @@
         <v>340</v>
       </c>
       <c r="D240" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E240" t="s">
         <v>279</v>
@@ -7064,7 +7074,7 @@
         <v>340</v>
       </c>
       <c r="D241" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E241" t="s">
         <v>279</v>
@@ -7081,7 +7091,7 @@
         <v>340</v>
       </c>
       <c r="D242" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E242" t="s">
         <v>280</v>
@@ -7098,7 +7108,7 @@
         <v>340</v>
       </c>
       <c r="D243" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E243" t="s">
         <v>280</v>
@@ -7115,7 +7125,7 @@
         <v>340</v>
       </c>
       <c r="D244" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E244" t="s">
         <v>280</v>
@@ -7132,7 +7142,7 @@
         <v>340</v>
       </c>
       <c r="D245" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E245" t="s">
         <v>281</v>
@@ -7149,7 +7159,7 @@
         <v>340</v>
       </c>
       <c r="D246" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E246" t="s">
         <v>281</v>
@@ -7166,7 +7176,7 @@
         <v>340</v>
       </c>
       <c r="D247" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E247" t="s">
         <v>281</v>
@@ -7183,7 +7193,7 @@
         <v>340</v>
       </c>
       <c r="D248" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E248" t="s">
         <v>282</v>
@@ -7200,7 +7210,7 @@
         <v>340</v>
       </c>
       <c r="D249" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E249" t="s">
         <v>282</v>
@@ -7217,7 +7227,7 @@
         <v>340</v>
       </c>
       <c r="D250" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E250" t="s">
         <v>282</v>
@@ -7234,7 +7244,7 @@
         <v>340</v>
       </c>
       <c r="D251" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E251" t="s">
         <v>283</v>
@@ -7251,7 +7261,7 @@
         <v>340</v>
       </c>
       <c r="D252" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E252" t="s">
         <v>283</v>
@@ -7268,7 +7278,7 @@
         <v>340</v>
       </c>
       <c r="D253" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E253" t="s">
         <v>283</v>
@@ -7285,7 +7295,7 @@
         <v>340</v>
       </c>
       <c r="D254" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E254" t="s">
         <v>284</v>
@@ -7302,7 +7312,7 @@
         <v>340</v>
       </c>
       <c r="D255" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E255" t="s">
         <v>284</v>
@@ -7319,7 +7329,7 @@
         <v>340</v>
       </c>
       <c r="D256" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E256" t="s">
         <v>284</v>
@@ -7336,7 +7346,7 @@
         <v>340</v>
       </c>
       <c r="D257" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E257" t="s">
         <v>285</v>
@@ -7353,7 +7363,7 @@
         <v>340</v>
       </c>
       <c r="D258" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E258" t="s">
         <v>285</v>
@@ -7370,7 +7380,7 @@
         <v>340</v>
       </c>
       <c r="D259" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E259" t="s">
         <v>285</v>
@@ -7387,7 +7397,7 @@
         <v>340</v>
       </c>
       <c r="D260" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E260" t="s">
         <v>286</v>
@@ -7404,7 +7414,7 @@
         <v>340</v>
       </c>
       <c r="D261" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E261" t="s">
         <v>286</v>
@@ -7421,7 +7431,7 @@
         <v>340</v>
       </c>
       <c r="D262" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E262" t="s">
         <v>286</v>
@@ -7438,7 +7448,7 @@
         <v>340</v>
       </c>
       <c r="D263" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E263" t="s">
         <v>287</v>
@@ -7455,7 +7465,7 @@
         <v>340</v>
       </c>
       <c r="D264" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E264" t="s">
         <v>287</v>
@@ -7472,7 +7482,7 @@
         <v>340</v>
       </c>
       <c r="D265" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E265" t="s">
         <v>287</v>
@@ -7489,7 +7499,7 @@
         <v>340</v>
       </c>
       <c r="D266" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E266" t="s">
         <v>288</v>
@@ -7506,7 +7516,7 @@
         <v>340</v>
       </c>
       <c r="D267" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E267" t="s">
         <v>288</v>
@@ -7523,7 +7533,7 @@
         <v>340</v>
       </c>
       <c r="D268" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E268" t="s">
         <v>288</v>
@@ -7540,7 +7550,7 @@
         <v>340</v>
       </c>
       <c r="D269" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E269" t="s">
         <v>289</v>
@@ -7557,7 +7567,7 @@
         <v>340</v>
       </c>
       <c r="D270" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E270" t="s">
         <v>289</v>
@@ -7574,7 +7584,7 @@
         <v>340</v>
       </c>
       <c r="D271" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E271" t="s">
         <v>289</v>
@@ -7591,7 +7601,7 @@
         <v>340</v>
       </c>
       <c r="D272" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E272" t="s">
         <v>290</v>
@@ -7608,7 +7618,7 @@
         <v>340</v>
       </c>
       <c r="D273" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E273" t="s">
         <v>290</v>
@@ -7625,7 +7635,7 @@
         <v>340</v>
       </c>
       <c r="D274" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E274" t="s">
         <v>290</v>
@@ -7642,7 +7652,7 @@
         <v>340</v>
       </c>
       <c r="D275" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E275" t="s">
         <v>291</v>
@@ -7659,7 +7669,7 @@
         <v>340</v>
       </c>
       <c r="D276" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E276" t="s">
         <v>291</v>
@@ -7676,7 +7686,7 @@
         <v>340</v>
       </c>
       <c r="D277" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E277" t="s">
         <v>291</v>
@@ -7693,7 +7703,7 @@
         <v>340</v>
       </c>
       <c r="D278" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E278" t="s">
         <v>292</v>
@@ -7710,7 +7720,7 @@
         <v>340</v>
       </c>
       <c r="D279" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E279" t="s">
         <v>292</v>
@@ -7727,7 +7737,7 @@
         <v>340</v>
       </c>
       <c r="D280" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E280" t="s">
         <v>292</v>
@@ -7744,7 +7754,7 @@
         <v>340</v>
       </c>
       <c r="D281" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E281" t="s">
         <v>293</v>
@@ -7761,7 +7771,7 @@
         <v>340</v>
       </c>
       <c r="D282" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E282" t="s">
         <v>293</v>
@@ -7778,7 +7788,7 @@
         <v>340</v>
       </c>
       <c r="D283" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E283" t="s">
         <v>293</v>
@@ -7795,7 +7805,7 @@
         <v>340</v>
       </c>
       <c r="D284" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E284" t="s">
         <v>294</v>
@@ -7812,7 +7822,7 @@
         <v>340</v>
       </c>
       <c r="D285" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E285" t="s">
         <v>294</v>
@@ -7829,7 +7839,7 @@
         <v>340</v>
       </c>
       <c r="D286" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E286" t="s">
         <v>294</v>
@@ -7846,7 +7856,7 @@
         <v>340</v>
       </c>
       <c r="D287" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E287" t="s">
         <v>295</v>
@@ -7863,7 +7873,7 @@
         <v>340</v>
       </c>
       <c r="D288" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E288" t="s">
         <v>295</v>
@@ -7880,7 +7890,7 @@
         <v>340</v>
       </c>
       <c r="D289" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E289" t="s">
         <v>295</v>
@@ -7897,7 +7907,7 @@
         <v>340</v>
       </c>
       <c r="D290" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E290" t="s">
         <v>296</v>
@@ -7914,7 +7924,7 @@
         <v>340</v>
       </c>
       <c r="D291" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E291" t="s">
         <v>296</v>
@@ -7931,7 +7941,7 @@
         <v>340</v>
       </c>
       <c r="D292" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E292" t="s">
         <v>296</v>
@@ -7948,7 +7958,7 @@
         <v>340</v>
       </c>
       <c r="D293" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E293" t="s">
         <v>297</v>
@@ -7965,7 +7975,7 @@
         <v>340</v>
       </c>
       <c r="D294" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E294" t="s">
         <v>297</v>
@@ -7982,7 +7992,7 @@
         <v>340</v>
       </c>
       <c r="D295" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E295" t="s">
         <v>297</v>
@@ -7999,7 +8009,7 @@
         <v>340</v>
       </c>
       <c r="D296" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E296" t="s">
         <v>298</v>
@@ -8016,7 +8026,7 @@
         <v>340</v>
       </c>
       <c r="D297" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E297" t="s">
         <v>298</v>
@@ -8033,7 +8043,7 @@
         <v>340</v>
       </c>
       <c r="D298" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E298" t="s">
         <v>298</v>
@@ -8050,7 +8060,7 @@
         <v>340</v>
       </c>
       <c r="D299" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E299" t="s">
         <v>299</v>
@@ -8067,7 +8077,7 @@
         <v>340</v>
       </c>
       <c r="D300" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E300" t="s">
         <v>299</v>
@@ -8084,7 +8094,7 @@
         <v>340</v>
       </c>
       <c r="D301" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E301" t="s">
         <v>299</v>
@@ -8101,7 +8111,7 @@
         <v>340</v>
       </c>
       <c r="D302" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E302" t="s">
         <v>300</v>
@@ -8118,7 +8128,7 @@
         <v>340</v>
       </c>
       <c r="D303" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E303" t="s">
         <v>300</v>
@@ -8135,7 +8145,7 @@
         <v>340</v>
       </c>
       <c r="D304" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E304" t="s">
         <v>300</v>
@@ -8152,7 +8162,7 @@
         <v>340</v>
       </c>
       <c r="D305" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E305" t="s">
         <v>301</v>
@@ -8169,7 +8179,7 @@
         <v>340</v>
       </c>
       <c r="D306" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E306" t="s">
         <v>301</v>
@@ -8186,7 +8196,7 @@
         <v>340</v>
       </c>
       <c r="D307" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E307" t="s">
         <v>301</v>
@@ -8203,7 +8213,7 @@
         <v>340</v>
       </c>
       <c r="D308" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E308" t="s">
         <v>302</v>
@@ -8220,7 +8230,7 @@
         <v>340</v>
       </c>
       <c r="D309" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E309" t="s">
         <v>302</v>
@@ -8237,7 +8247,7 @@
         <v>340</v>
       </c>
       <c r="D310" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E310" t="s">
         <v>302</v>
@@ -8254,7 +8264,7 @@
         <v>340</v>
       </c>
       <c r="D311" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E311" t="s">
         <v>303</v>
@@ -8271,7 +8281,7 @@
         <v>340</v>
       </c>
       <c r="D312" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E312" t="s">
         <v>303</v>
@@ -8288,7 +8298,7 @@
         <v>340</v>
       </c>
       <c r="D313" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E313" t="s">
         <v>303</v>
@@ -8305,7 +8315,7 @@
         <v>340</v>
       </c>
       <c r="D314" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E314" t="s">
         <v>304</v>
@@ -8322,7 +8332,7 @@
         <v>340</v>
       </c>
       <c r="D315" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E315" t="s">
         <v>304</v>
@@ -8339,7 +8349,7 @@
         <v>340</v>
       </c>
       <c r="D316" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E316" t="s">
         <v>304</v>
@@ -8356,7 +8366,7 @@
         <v>340</v>
       </c>
       <c r="D317" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E317" t="s">
         <v>305</v>
@@ -8373,7 +8383,7 @@
         <v>340</v>
       </c>
       <c r="D318" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E318" t="s">
         <v>305</v>
@@ -8390,7 +8400,7 @@
         <v>340</v>
       </c>
       <c r="D319" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E319" t="s">
         <v>305</v>
@@ -8407,7 +8417,7 @@
         <v>340</v>
       </c>
       <c r="D320" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E320" t="s">
         <v>306</v>
@@ -8424,7 +8434,7 @@
         <v>340</v>
       </c>
       <c r="D321" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E321" t="s">
         <v>306</v>
@@ -8441,7 +8451,7 @@
         <v>340</v>
       </c>
       <c r="D322" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E322" t="s">
         <v>306</v>
@@ -8458,7 +8468,7 @@
         <v>340</v>
       </c>
       <c r="D323" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E323" t="s">
         <v>307</v>
@@ -8475,7 +8485,7 @@
         <v>340</v>
       </c>
       <c r="D324" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E324" t="s">
         <v>307</v>
@@ -8492,7 +8502,7 @@
         <v>340</v>
       </c>
       <c r="D325" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E325" t="s">
         <v>307</v>
@@ -8509,7 +8519,7 @@
         <v>340</v>
       </c>
       <c r="D326" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E326" t="s">
         <v>308</v>
@@ -8526,7 +8536,7 @@
         <v>340</v>
       </c>
       <c r="D327" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E327" t="s">
         <v>308</v>
@@ -8543,7 +8553,7 @@
         <v>340</v>
       </c>
       <c r="D328" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E328" t="s">
         <v>308</v>
@@ -8560,7 +8570,7 @@
         <v>340</v>
       </c>
       <c r="D329" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E329" t="s">
         <v>309</v>
@@ -8577,7 +8587,7 @@
         <v>340</v>
       </c>
       <c r="D330" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E330" t="s">
         <v>309</v>
@@ -8594,7 +8604,7 @@
         <v>340</v>
       </c>
       <c r="D331" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E331" t="s">
         <v>309</v>
@@ -8611,7 +8621,7 @@
         <v>340</v>
       </c>
       <c r="D332" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E332" t="s">
         <v>310</v>
@@ -8628,7 +8638,7 @@
         <v>340</v>
       </c>
       <c r="D333" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E333" t="s">
         <v>310</v>
@@ -8645,7 +8655,7 @@
         <v>340</v>
       </c>
       <c r="D334" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E334" t="s">
         <v>310</v>
@@ -8662,7 +8672,7 @@
         <v>340</v>
       </c>
       <c r="D335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E335" t="s">
         <v>311</v>
@@ -8679,7 +8689,7 @@
         <v>340</v>
       </c>
       <c r="D336" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E336" t="s">
         <v>311</v>
@@ -8696,7 +8706,7 @@
         <v>340</v>
       </c>
       <c r="D337" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E337" t="s">
         <v>311</v>
@@ -8713,7 +8723,7 @@
         <v>340</v>
       </c>
       <c r="D338" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E338" t="s">
         <v>312</v>
@@ -8730,7 +8740,7 @@
         <v>340</v>
       </c>
       <c r="D339" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E339" t="s">
         <v>312</v>
@@ -8747,7 +8757,7 @@
         <v>340</v>
       </c>
       <c r="D340" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E340" t="s">
         <v>312</v>
@@ -8764,7 +8774,7 @@
         <v>340</v>
       </c>
       <c r="D341" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E341" t="s">
         <v>313</v>
@@ -8781,7 +8791,7 @@
         <v>340</v>
       </c>
       <c r="D342" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E342" t="s">
         <v>313</v>
@@ -8798,7 +8808,7 @@
         <v>340</v>
       </c>
       <c r="D343" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E343" t="s">
         <v>313</v>
@@ -8815,7 +8825,7 @@
         <v>340</v>
       </c>
       <c r="D344" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E344" t="s">
         <v>314</v>
@@ -8832,7 +8842,7 @@
         <v>340</v>
       </c>
       <c r="D345" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E345" t="s">
         <v>314</v>
@@ -8849,7 +8859,7 @@
         <v>340</v>
       </c>
       <c r="D346" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E346" t="s">
         <v>314</v>
@@ -8866,7 +8876,7 @@
         <v>340</v>
       </c>
       <c r="D347" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E347" t="s">
         <v>315</v>
@@ -8883,7 +8893,7 @@
         <v>340</v>
       </c>
       <c r="D348" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E348" t="s">
         <v>315</v>
@@ -8900,7 +8910,7 @@
         <v>340</v>
       </c>
       <c r="D349" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E349" t="s">
         <v>315</v>
@@ -8917,7 +8927,7 @@
         <v>340</v>
       </c>
       <c r="D350" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E350" t="s">
         <v>316</v>
@@ -8934,7 +8944,7 @@
         <v>340</v>
       </c>
       <c r="D351" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E351" t="s">
         <v>316</v>
@@ -8951,7 +8961,7 @@
         <v>340</v>
       </c>
       <c r="D352" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E352" t="s">
         <v>316</v>
@@ -8968,7 +8978,7 @@
         <v>340</v>
       </c>
       <c r="D353" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E353" t="s">
         <v>317</v>
@@ -8985,7 +8995,7 @@
         <v>340</v>
       </c>
       <c r="D354" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E354" t="s">
         <v>317</v>
@@ -9002,7 +9012,7 @@
         <v>340</v>
       </c>
       <c r="D355" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E355" t="s">
         <v>317</v>
@@ -9019,7 +9029,7 @@
         <v>340</v>
       </c>
       <c r="D356" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E356" t="s">
         <v>318</v>
@@ -9036,7 +9046,7 @@
         <v>340</v>
       </c>
       <c r="D357" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E357" t="s">
         <v>318</v>
@@ -9053,7 +9063,7 @@
         <v>340</v>
       </c>
       <c r="D358" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E358" t="s">
         <v>318</v>
@@ -9070,7 +9080,7 @@
         <v>340</v>
       </c>
       <c r="D359" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E359" t="s">
         <v>319</v>
@@ -9087,7 +9097,7 @@
         <v>340</v>
       </c>
       <c r="D360" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E360" t="s">
         <v>319</v>
@@ -9104,7 +9114,7 @@
         <v>340</v>
       </c>
       <c r="D361" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E361" t="s">
         <v>319</v>
@@ -9121,7 +9131,7 @@
         <v>340</v>
       </c>
       <c r="D362" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E362" t="s">
         <v>320</v>
@@ -9138,7 +9148,7 @@
         <v>340</v>
       </c>
       <c r="D363" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E363" t="s">
         <v>320</v>
@@ -9155,7 +9165,7 @@
         <v>340</v>
       </c>
       <c r="D364" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E364" t="s">
         <v>320</v>
@@ -9172,7 +9182,7 @@
         <v>340</v>
       </c>
       <c r="D365" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E365" t="s">
         <v>321</v>
@@ -9189,7 +9199,7 @@
         <v>340</v>
       </c>
       <c r="D366" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E366" t="s">
         <v>321</v>
@@ -9206,7 +9216,7 @@
         <v>340</v>
       </c>
       <c r="D367" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E367" t="s">
         <v>321</v>
@@ -9223,7 +9233,7 @@
         <v>340</v>
       </c>
       <c r="D368" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E368" t="s">
         <v>322</v>
@@ -9240,7 +9250,7 @@
         <v>340</v>
       </c>
       <c r="D369" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E369" t="s">
         <v>322</v>
@@ -9257,7 +9267,7 @@
         <v>340</v>
       </c>
       <c r="D370" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E370" t="s">
         <v>322</v>
@@ -9274,7 +9284,7 @@
         <v>340</v>
       </c>
       <c r="D371" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E371" t="s">
         <v>323</v>
@@ -9291,7 +9301,7 @@
         <v>340</v>
       </c>
       <c r="D372" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E372" t="s">
         <v>323</v>
@@ -9308,7 +9318,7 @@
         <v>340</v>
       </c>
       <c r="D373" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E373" t="s">
         <v>323</v>
@@ -9325,7 +9335,7 @@
         <v>340</v>
       </c>
       <c r="D374" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E374" t="s">
         <v>324</v>
@@ -9342,7 +9352,7 @@
         <v>340</v>
       </c>
       <c r="D375" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E375" t="s">
         <v>324</v>
@@ -9359,7 +9369,7 @@
         <v>340</v>
       </c>
       <c r="D376" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E376" t="s">
         <v>324</v>
@@ -9376,7 +9386,7 @@
         <v>340</v>
       </c>
       <c r="D377" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E377" t="s">
         <v>325</v>
@@ -9393,7 +9403,7 @@
         <v>340</v>
       </c>
       <c r="D378" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E378" t="s">
         <v>325</v>
@@ -9410,7 +9420,7 @@
         <v>340</v>
       </c>
       <c r="D379" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E379" t="s">
         <v>325</v>
@@ -9427,7 +9437,7 @@
         <v>340</v>
       </c>
       <c r="D380" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E380" t="s">
         <v>326</v>
@@ -9444,7 +9454,7 @@
         <v>340</v>
       </c>
       <c r="D381" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E381" t="s">
         <v>326</v>
@@ -9461,7 +9471,7 @@
         <v>340</v>
       </c>
       <c r="D382" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E382" t="s">
         <v>326</v>
@@ -9478,7 +9488,7 @@
         <v>340</v>
       </c>
       <c r="D383" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E383" t="s">
         <v>327</v>
@@ -9495,7 +9505,7 @@
         <v>340</v>
       </c>
       <c r="D384" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E384" t="s">
         <v>327</v>
@@ -9512,7 +9522,7 @@
         <v>340</v>
       </c>
       <c r="D385" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E385" t="s">
         <v>327</v>
@@ -9529,7 +9539,7 @@
         <v>340</v>
       </c>
       <c r="D386" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E386" t="s">
         <v>328</v>
@@ -9546,7 +9556,7 @@
         <v>340</v>
       </c>
       <c r="D387" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E387" t="s">
         <v>328</v>
@@ -9563,7 +9573,7 @@
         <v>340</v>
       </c>
       <c r="D388" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E388" t="s">
         <v>328</v>
@@ -9580,7 +9590,7 @@
         <v>340</v>
       </c>
       <c r="D389" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E389" t="s">
         <v>329</v>
@@ -9597,7 +9607,7 @@
         <v>340</v>
       </c>
       <c r="D390" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E390" t="s">
         <v>329</v>
@@ -9614,7 +9624,7 @@
         <v>340</v>
       </c>
       <c r="D391" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E391" t="s">
         <v>329</v>
@@ -9631,7 +9641,7 @@
         <v>340</v>
       </c>
       <c r="D392" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E392" t="s">
         <v>330</v>
@@ -9648,7 +9658,7 @@
         <v>340</v>
       </c>
       <c r="D393" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E393" t="s">
         <v>330</v>
@@ -9665,7 +9675,7 @@
         <v>340</v>
       </c>
       <c r="D394" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E394" t="s">
         <v>330</v>
@@ -9682,7 +9692,7 @@
         <v>340</v>
       </c>
       <c r="D395" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E395" t="s">
         <v>331</v>
@@ -9699,7 +9709,7 @@
         <v>340</v>
       </c>
       <c r="D396" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E396" t="s">
         <v>331</v>
@@ -9716,7 +9726,7 @@
         <v>340</v>
       </c>
       <c r="D397" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E397" t="s">
         <v>331</v>
@@ -9733,7 +9743,7 @@
         <v>340</v>
       </c>
       <c r="D398" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E398" t="s">
         <v>332</v>
@@ -9750,7 +9760,7 @@
         <v>340</v>
       </c>
       <c r="D399" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E399" t="s">
         <v>332</v>
@@ -9767,7 +9777,7 @@
         <v>340</v>
       </c>
       <c r="D400" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E400" t="s">
         <v>332</v>
@@ -9784,7 +9794,7 @@
         <v>340</v>
       </c>
       <c r="D401" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E401" t="s">
         <v>333</v>
@@ -9801,7 +9811,7 @@
         <v>340</v>
       </c>
       <c r="D402" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E402" t="s">
         <v>333</v>
@@ -9818,7 +9828,7 @@
         <v>340</v>
       </c>
       <c r="D403" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E403" t="s">
         <v>333</v>
@@ -9835,7 +9845,7 @@
         <v>340</v>
       </c>
       <c r="D404" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E404" t="s">
         <v>334</v>
@@ -9852,7 +9862,7 @@
         <v>340</v>
       </c>
       <c r="D405" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E405" t="s">
         <v>334</v>
@@ -9869,7 +9879,7 @@
         <v>340</v>
       </c>
       <c r="D406" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E406" t="s">
         <v>334</v>
@@ -9886,7 +9896,7 @@
         <v>340</v>
       </c>
       <c r="D407" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E407" t="s">
         <v>335</v>
@@ -9903,7 +9913,7 @@
         <v>340</v>
       </c>
       <c r="D408" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E408" t="s">
         <v>335</v>
@@ -9920,7 +9930,7 @@
         <v>340</v>
       </c>
       <c r="D409" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E409" t="s">
         <v>335</v>
@@ -9937,7 +9947,7 @@
         <v>340</v>
       </c>
       <c r="D410" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E410" t="s">
         <v>336</v>
@@ -9954,7 +9964,7 @@
         <v>340</v>
       </c>
       <c r="D411" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E411" t="s">
         <v>336</v>
@@ -9971,7 +9981,7 @@
         <v>340</v>
       </c>
       <c r="D412" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E412" t="s">
         <v>336</v>
@@ -9988,7 +9998,7 @@
         <v>340</v>
       </c>
       <c r="D413" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E413" t="s">
         <v>337</v>
@@ -10005,7 +10015,7 @@
         <v>340</v>
       </c>
       <c r="D414" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E414" t="s">
         <v>337</v>
@@ -10022,7 +10032,7 @@
         <v>340</v>
       </c>
       <c r="D415" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E415" t="s">
         <v>337</v>
@@ -10039,7 +10049,7 @@
         <v>340</v>
       </c>
       <c r="D416" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E416" t="s">
         <v>338</v>
@@ -10056,7 +10066,7 @@
         <v>340</v>
       </c>
       <c r="D417" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E417" t="s">
         <v>338</v>
@@ -10073,7 +10083,7 @@
         <v>340</v>
       </c>
       <c r="D418" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E418" t="s">
         <v>338</v>
@@ -10089,9 +10099,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10102,9 +10112,9 @@
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
         <v>64</v>
@@ -10113,13 +10123,13 @@
         <v>343</v>
       </c>
       <c r="D1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10133,10 +10143,13 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+      <c r="F2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10150,10 +10163,13 @@
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+      <c r="F3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10167,10 +10183,13 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+      <c r="F4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10184,12 +10203,15 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+      <c r="F5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -10201,10 +10223,13 @@
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+      <c r="F6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10218,12 +10243,15 @@
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -10235,10 +10263,13 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+      <c r="F8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10252,10 +10283,13 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+      <c r="F9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -10269,10 +10303,13 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+      <c r="F10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -10286,10 +10323,13 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+      <c r="F11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -10303,10 +10343,13 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+      <c r="F12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -10320,10 +10363,13 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+      <c r="F13" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -10337,10 +10383,13 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+      <c r="F14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -10354,10 +10403,13 @@
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+      <c r="F15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -10371,10 +10423,13 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+      <c r="F16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -10388,10 +10443,13 @@
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+      <c r="F17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -10405,10 +10463,13 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="F18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -10422,10 +10483,13 @@
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+      <c r="F19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -10439,10 +10503,13 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+      <c r="F20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -10456,10 +10523,13 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+      <c r="F21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -10473,10 +10543,13 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+      <c r="F22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -10490,10 +10563,13 @@
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+      <c r="F23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -10507,10 +10583,13 @@
         <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="F24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -10524,10 +10603,13 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="F25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -10541,10 +10623,13 @@
         <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="F26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -10558,10 +10643,13 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+      <c r="F27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -10575,10 +10663,13 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="F28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -10592,10 +10683,13 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+      <c r="F29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -10609,10 +10703,13 @@
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+      <c r="F30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -10626,10 +10723,13 @@
         <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="F31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -10643,10 +10743,13 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+      <c r="F32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -10660,10 +10763,13 @@
         <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+      <c r="F33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -10677,10 +10783,13 @@
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+      <c r="F34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -10694,10 +10803,13 @@
         <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+      <c r="F35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -10711,10 +10823,13 @@
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+      <c r="F36" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -10728,10 +10843,13 @@
         <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+      <c r="F37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -10745,10 +10863,13 @@
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+      <c r="F38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -10762,10 +10883,13 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+      <c r="F39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -10779,10 +10903,13 @@
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+      <c r="F40" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -10796,10 +10923,13 @@
         <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+      <c r="F41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -10813,10 +10943,13 @@
         <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="F42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -10830,10 +10963,13 @@
         <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+      <c r="F43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -10847,10 +10983,13 @@
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+      <c r="F44" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -10864,10 +11003,13 @@
         <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+      <c r="F45" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -10881,10 +11023,13 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+      <c r="F46" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -10898,10 +11043,13 @@
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+      <c r="F47" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -10915,10 +11063,13 @@
         <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+      <c r="F48" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -10932,10 +11083,13 @@
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+      <c r="F49" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -10949,10 +11103,13 @@
         <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+      <c r="F50" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -10966,10 +11123,13 @@
         <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="F51" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -10983,10 +11143,13 @@
         <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+      <c r="F52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -11000,12 +11163,15 @@
         <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+      <c r="F53" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -11017,10 +11183,13 @@
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="F54" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -11034,10 +11203,13 @@
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="F55" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -11051,10 +11223,13 @@
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="F56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -11068,10 +11243,13 @@
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="F57" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -11085,10 +11263,13 @@
         <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+      <c r="F58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -11102,10 +11283,13 @@
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+      <c r="F59" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -11119,10 +11303,13 @@
         <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="F60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -11136,10 +11323,13 @@
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="F61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -11153,10 +11343,13 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="F62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -11170,10 +11363,13 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="F63" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -11187,10 +11383,13 @@
         <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -11204,10 +11403,13 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="F65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -11221,10 +11423,13 @@
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+      <c r="F66" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -11238,10 +11443,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="F67" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -11255,10 +11463,13 @@
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="F68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -11272,10 +11483,13 @@
         <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+      <c r="F69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -11289,10 +11503,13 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="F70" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -11306,10 +11523,13 @@
         <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="F71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -11323,10 +11543,13 @@
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="F72" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -11340,10 +11563,13 @@
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+      <c r="F73" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -11357,10 +11583,13 @@
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+      <c r="F74" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -11374,10 +11603,13 @@
         <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -11391,10 +11623,13 @@
         <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -11408,10 +11643,13 @@
         <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+      <c r="F77" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -11425,10 +11663,13 @@
         <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="F78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -11442,10 +11683,13 @@
         <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+      <c r="F79" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>140</v>
       </c>
@@ -11459,44 +11703,53 @@
         <v>66</v>
       </c>
       <c r="E80" t="s">
+        <v>432</v>
+      </c>
+      <c r="F80" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" t="s">
+        <v>433</v>
+      </c>
+      <c r="F81" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>349</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>349</v>
-      </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" t="s">
-        <v>66</v>
-      </c>
-      <c r="E81" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>350</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F82" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -11510,12 +11763,15 @@
         <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+      <c r="F83" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -11527,10 +11783,13 @@
         <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+      <c r="F84" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>143</v>
       </c>
@@ -11544,10 +11803,13 @@
         <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+      <c r="F85" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>144</v>
       </c>
@@ -11561,10 +11823,13 @@
         <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+      <c r="F86" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>145</v>
       </c>
@@ -11578,10 +11843,13 @@
         <v>66</v>
       </c>
       <c r="E87" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+      <c r="F87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>146</v>
       </c>
@@ -11595,10 +11863,13 @@
         <v>66</v>
       </c>
       <c r="E88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+      <c r="F88" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>147</v>
       </c>
@@ -11612,10 +11883,13 @@
         <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+      <c r="F89" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>148</v>
       </c>
@@ -11629,12 +11903,15 @@
         <v>66</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+      <c r="F90" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
@@ -11646,10 +11923,13 @@
         <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+      <c r="F91" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -11663,10 +11943,13 @@
         <v>66</v>
       </c>
       <c r="E92" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+      <c r="F92" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>151</v>
       </c>
@@ -11680,10 +11963,13 @@
         <v>66</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+      <c r="F93" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -11697,10 +11983,13 @@
         <v>66</v>
       </c>
       <c r="E94" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+      <c r="F94" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -11714,10 +12003,13 @@
         <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+      <c r="F95" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>154</v>
       </c>
@@ -11731,10 +12023,13 @@
         <v>66</v>
       </c>
       <c r="E96" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="F96" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>155</v>
       </c>
@@ -11748,10 +12043,13 @@
         <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+      <c r="F97" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>157</v>
       </c>
@@ -11765,10 +12063,13 @@
         <v>66</v>
       </c>
       <c r="E98" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+      <c r="F98" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -11782,10 +12083,13 @@
         <v>66</v>
       </c>
       <c r="E99" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+      <c r="F99" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>159</v>
       </c>
@@ -11799,10 +12103,13 @@
         <v>66</v>
       </c>
       <c r="E100" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+      <c r="F100" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -11816,10 +12123,13 @@
         <v>66</v>
       </c>
       <c r="E101" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+      <c r="F101" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -11833,12 +12143,15 @@
         <v>66</v>
       </c>
       <c r="E102" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+      <c r="F102" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
@@ -11850,10 +12163,13 @@
         <v>66</v>
       </c>
       <c r="E103" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+      <c r="F103" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>162</v>
       </c>
@@ -11867,10 +12183,13 @@
         <v>66</v>
       </c>
       <c r="E104" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+      <c r="F104" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -11884,10 +12203,13 @@
         <v>66</v>
       </c>
       <c r="E105" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+      <c r="F105" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -11901,10 +12223,13 @@
         <v>66</v>
       </c>
       <c r="E106" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+      <c r="F106" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>166</v>
       </c>
@@ -11918,10 +12243,13 @@
         <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+      <c r="F107" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>167</v>
       </c>
@@ -11935,10 +12263,13 @@
         <v>66</v>
       </c>
       <c r="E108" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+      <c r="F108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -11952,10 +12283,13 @@
         <v>66</v>
       </c>
       <c r="E109" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+      <c r="F109" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>169</v>
       </c>
@@ -11969,10 +12303,13 @@
         <v>66</v>
       </c>
       <c r="E110" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+      <c r="F110" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -11986,10 +12323,13 @@
         <v>66</v>
       </c>
       <c r="E111" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+      <c r="F111" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>173</v>
       </c>
@@ -12003,10 +12343,13 @@
         <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+      <c r="F112" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>174</v>
       </c>
@@ -12020,10 +12363,13 @@
         <v>66</v>
       </c>
       <c r="E113" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="F113" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>175</v>
       </c>
@@ -12037,10 +12383,13 @@
         <v>66</v>
       </c>
       <c r="E114" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+      <c r="F114" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>176</v>
       </c>
@@ -12054,12 +12403,15 @@
         <v>66</v>
       </c>
       <c r="E115" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+      <c r="F115" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
@@ -12071,10 +12423,13 @@
         <v>66</v>
       </c>
       <c r="E116" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+      <c r="F116" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>178</v>
       </c>
@@ -12088,10 +12443,13 @@
         <v>66</v>
       </c>
       <c r="E117" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+      <c r="F117" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -12105,10 +12463,13 @@
         <v>66</v>
       </c>
       <c r="E118" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+      <c r="F118" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -12122,10 +12483,13 @@
         <v>66</v>
       </c>
       <c r="E119" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+      <c r="F119" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -12139,10 +12503,13 @@
         <v>66</v>
       </c>
       <c r="E120" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+      <c r="F120" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -12156,10 +12523,13 @@
         <v>66</v>
       </c>
       <c r="E121" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+      <c r="F121" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -12173,10 +12543,13 @@
         <v>66</v>
       </c>
       <c r="E122" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+      <c r="F122" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -12190,10 +12563,13 @@
         <v>66</v>
       </c>
       <c r="E123" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+      <c r="F123" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>185</v>
       </c>
@@ -12207,10 +12583,13 @@
         <v>66</v>
       </c>
       <c r="E124" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+      <c r="F124" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -12224,10 +12603,13 @@
         <v>66</v>
       </c>
       <c r="E125" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="F125" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -12241,10 +12623,13 @@
         <v>66</v>
       </c>
       <c r="E126" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+      <c r="F126" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -12258,10 +12643,13 @@
         <v>66</v>
       </c>
       <c r="E127" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+      <c r="F127" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -12275,10 +12663,13 @@
         <v>66</v>
       </c>
       <c r="E128" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+      <c r="F128" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -12292,10 +12683,13 @@
         <v>66</v>
       </c>
       <c r="E129" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+      <c r="F129" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -12309,10 +12703,13 @@
         <v>66</v>
       </c>
       <c r="E130" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+      <c r="F130" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -12326,10 +12723,13 @@
         <v>66</v>
       </c>
       <c r="E131" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+      <c r="F131" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>193</v>
       </c>
@@ -12343,12 +12743,15 @@
         <v>66</v>
       </c>
       <c r="E132" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+      <c r="F132" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
@@ -12360,10 +12763,13 @@
         <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+      <c r="F133" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -12377,10 +12783,13 @@
         <v>66</v>
       </c>
       <c r="E134" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+      <c r="F134" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -12394,10 +12803,13 @@
         <v>66</v>
       </c>
       <c r="E135" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+      <c r="F135" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -12411,10 +12823,13 @@
         <v>66</v>
       </c>
       <c r="E136" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+        <v>488</v>
+      </c>
+      <c r="F136" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -12428,10 +12843,13 @@
         <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+      <c r="F137" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -12445,10 +12863,13 @@
         <v>66</v>
       </c>
       <c r="E138" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+      <c r="F138" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -12462,7 +12883,10 @@
         <v>66</v>
       </c>
       <c r="E139" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="F139" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
